--- a/scripts/09_mosiacism_analysis/mut_from_mut_vs_wt_from_wt/GABA_P150_rrvgo_enrichr.xlsx
+++ b/scripts/09_mosiacism_analysis/mut_from_mut_vs_wt_from_wt/GABA_P150_rrvgo_enrichr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t xml:space="preserve">Gene Ontology</t>
   </si>
@@ -23,286 +23,265 @@
     <t xml:space="preserve">-log10.p-value</t>
   </si>
   <si>
+    <t xml:space="preserve">Molecular Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA binding</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cellular Component</t>
   </si>
   <si>
-    <t xml:space="preserve">dendrite</t>
+    <t xml:space="preserve">axon</t>
   </si>
   <si>
     <t xml:space="preserve">Biological Process</t>
   </si>
   <si>
-    <t xml:space="preserve">regulation of cation channel activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">septin ring organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">histone methyltransferase activity (H3-K36 specific)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of AMPA receptor activity</t>
+    <t xml:space="preserve">regulation of neuron projection development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of Notch signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epigenetic regulation of gene expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vesicle-mediated transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular component organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription coactivator activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRNA splicing, via spliceosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume-sensitive anion channel activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">focal adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC/E(Z) complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npBAF complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of neuron migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphotransferase activity, alcohol group as acceptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actin cytoskeleton reorganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuron projection development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">establishment of protein localization to organelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta-catenin-TCF complex assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cell-substrate adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of high voltage-gated calcium channel activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spermidine metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myeloid cell differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoprotein phosphatase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cysteine-type endopeptidase activity involved in apoptotic signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of protein deacetylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadenylation-dependent decapping of nuclear-transcribed mRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snRNA transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein dephosphorylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein heterodimerization activity</t>
   </si>
   <si>
     <t xml:space="preserve">cytoskeleton</t>
   </si>
   <si>
-    <t xml:space="preserve">glutamate receptor binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuron projection development</t>
+    <t xml:space="preserve">kinase binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of G0 to G1 transition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardiac muscle cell contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive chemotaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platelet-derived growth factor receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of cell growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of histone methylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ras protein signal transduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golgi apparatus subcompartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preribosome, small subunit precursor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death receptor binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nucleosomal DNA binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA-templated transcription elongation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear androgen receptor binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dynactin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3'-5'-exoribonuclease activity</t>
   </si>
   <si>
     <t xml:space="preserve">regulation of glutamate receptor signaling pathway</t>
   </si>
   <si>
-    <t xml:space="preserve">ionotropic glutamate receptor complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear-transcribed mRNA catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intracellular protein transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ribonucleoprotein complex assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation factor activity, RNA binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPII-coated vesicle budding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDZ domain binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">septin cytoskeleton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ribosomal small subunit binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPII vesicle coating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erythrocyte differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of cell-substrate adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">axon guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ras protein signal transduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voltage-gated calcium channel activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of neuron projection development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">substrate-dependent cell migration, cell extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of kinase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">axonal fasciculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anterograde trans-synaptic signaling</t>
+    <t xml:space="preserve">fatty acid elongation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein-arginine N-methyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cadherin binding</t>
   </si>
   <si>
     <t xml:space="preserve">early endosome membrane</t>
   </si>
   <si>
-    <t xml:space="preserve">kinase activity</t>
+    <t xml:space="preserve">regulation of translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein phosphatase inhibitor activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chondroitin sulfate catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of protein kinase B signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inner mitochondrial membrane organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of hemopoiesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purine-containing compound salvage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syntaxin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4/U6 x U5 tri-snRNP complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to DNA damage checkpoint signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICOS complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromo shadow domain binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of DNA-templated DNA replication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">membrane repolarization during cardiac muscle cell action potential</t>
   </si>
   <si>
     <t xml:space="preserve">endoplasmic reticulum-Golgi intermediate compartment</t>
   </si>
   <si>
-    <t xml:space="preserve">regulation of protein deacetylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromatin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTPase regulator activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vesicle-mediated transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cadherin binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polysome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rRNA metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cardiac muscle cell action potential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cell cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of cell population proliferation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viral process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cardiac muscle cell contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dynactin binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platelet-derived growth factor binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESC/E(Z) complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of translational initiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of axon extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of proteolysis involved in protein catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cellular response to stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTPase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription preinitiation complex assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of mRNA binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chondroitin sulfate metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of DNA biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">membrane lipid catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA polymerase III transcription regulator complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neural crest cell differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to amyloid-beta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADP binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peptide transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of type I interferon production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of chemotaxis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytoplasmic pattern recognition receptor signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein-cysteine S-acyltransferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA polymerase III activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small GTPase binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription coactivator activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of gene expression, epigenetic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear receptor binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCRT complex disassembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low-density lipoprotein particle receptor catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary lysosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">syntaxin binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">establishment of epithelial cell polarity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">receptor localization to synapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA polyadenylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basal RNA polymerase II transcription machinery binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein heterodimerization activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic respiration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K63-linked polyubiquitin modification-dependent protein binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aspartic-type endopeptidase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABA receptor activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endothelial cell differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">embryonic appendage morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to DNA damage checkpoint signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collagen biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spanning component of plasma membrane</t>
+    <t xml:space="preserve">positive regulation of substrate adhesion-dependent cell spreading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apoptotic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of osteoblast proliferation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of hormone biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDP-alcohol phosphatidyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulin-like growth factor II binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of viral transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lytic vacuole membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purine ribonucleoside triphosphate binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perinuclear region of cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'de novo' post-translational protein folding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">establishment or maintenance of apical/basal cell polarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aldehyde biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA polymerase I core promoter sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nucleic acid phosphodiester bond hydrolysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription-coupled nucleotide-excision repair</t>
   </si>
 </sst>
 </file>
@@ -653,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>10.4328215616073</v>
+        <v>6.39893169226604</v>
       </c>
     </row>
     <row r="3">
@@ -664,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>6.58621393107391</v>
+        <v>5.1618405291821</v>
       </c>
     </row>
     <row r="4">
@@ -675,18 +654,18 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>6.11464649046638</v>
+        <v>4.5210964040567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>5.46474496645529</v>
+        <v>4.02459927630223</v>
       </c>
     </row>
     <row r="6">
@@ -697,73 +676,73 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>5.26029413141824</v>
+        <v>3.89335701032788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>5.09127589711452</v>
+        <v>3.808663351893</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>4.82776599023596</v>
+        <v>3.63012117317422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>4.82402142224772</v>
+        <v>3.37143746083796</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>4.79892475411043</v>
+        <v>3.36947216137543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>4.7828523128505</v>
+        <v>3.13172919176819</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>4.73011412721152</v>
+        <v>3.05439775477276</v>
       </c>
     </row>
     <row r="13">
@@ -774,7 +753,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>4.48103638906441</v>
+        <v>2.98534221184139</v>
       </c>
     </row>
     <row r="14">
@@ -785,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>4.46660587945479</v>
+        <v>2.98224221831863</v>
       </c>
     </row>
     <row r="15">
@@ -796,7 +775,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>4.3926165075419</v>
+        <v>2.95143880483689</v>
       </c>
     </row>
     <row r="16">
@@ -807,18 +786,18 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>4.23689088147179</v>
+        <v>2.8661904439814</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>4.16229825962217</v>
+        <v>2.81909170375559</v>
       </c>
     </row>
     <row r="18">
@@ -829,18 +808,18 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>3.99207550827467</v>
+        <v>2.75704028986312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>3.93205372319242</v>
+        <v>2.75398308979501</v>
       </c>
     </row>
     <row r="20">
@@ -851,128 +830,128 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>3.93205372319242</v>
+        <v>2.70660172632169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>3.91708457351813</v>
+        <v>2.67622103786161</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>3.63117512388287</v>
+        <v>2.62452299988505</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>3.49984817481147</v>
+        <v>2.53365750014516</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>3.4417743976249</v>
+        <v>2.53365750014516</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>3.44099317281427</v>
+        <v>2.44169107382862</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>3.4344735072453</v>
+        <v>2.40898307934137</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>3.35557236717699</v>
+        <v>2.39857027071559</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>3.33418716810584</v>
+        <v>2.34454020289285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>3.29050307753936</v>
+        <v>2.34454020289285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>3.27833683473657</v>
+        <v>2.34171144682694</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>3.26405177596597</v>
+        <v>2.31264596084113</v>
       </c>
     </row>
     <row r="32">
@@ -983,18 +962,18 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>3.25428792251059</v>
+        <v>2.26548681977546</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>3.11487467495776</v>
+        <v>2.2504846129402</v>
       </c>
     </row>
     <row r="34">
@@ -1005,29 +984,29 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>3.08852518454253</v>
+        <v>2.22031962526105</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>3.05530501864742</v>
+        <v>2.20158690701294</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>3.00724420217616</v>
+        <v>2.18883750789324</v>
       </c>
     </row>
     <row r="37">
@@ -1038,18 +1017,18 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>2.93863908743743</v>
+        <v>2.18883750789324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>2.91012358584568</v>
+        <v>2.18883750789324</v>
       </c>
     </row>
     <row r="39">
@@ -1060,29 +1039,29 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>2.88514544949968</v>
+        <v>2.18660052084631</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>2.76588985018743</v>
+        <v>2.18341481456007</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>2.762864441663</v>
+        <v>2.14572937827186</v>
       </c>
     </row>
     <row r="42">
@@ -1093,7 +1072,7 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>2.76141452019328</v>
+        <v>2.09720853970939</v>
       </c>
     </row>
     <row r="43">
@@ -1104,62 +1083,62 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>2.66372411760297</v>
+        <v>2.04344156710583</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>2.59650386483015</v>
+        <v>2.04344156710583</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>2.52888457100875</v>
+        <v>2.02161601571213</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>2.49996732009952</v>
+        <v>1.97171577040911</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>2.44802658395492</v>
+        <v>1.93199908595988</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>2.44802658395492</v>
+        <v>1.92003010061212</v>
       </c>
     </row>
     <row r="49">
@@ -1170,172 +1149,172 @@
         <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>2.38140785618056</v>
+        <v>1.89869744373773</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="C50" t="n">
-        <v>2.30481685864706</v>
+        <v>1.84120265092144</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>2.27151042093051</v>
+        <v>1.80994480444899</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
       </c>
       <c r="C52" t="n">
-        <v>2.27151042093051</v>
+        <v>1.80994480444899</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
       </c>
       <c r="C53" t="n">
-        <v>2.26438888348018</v>
+        <v>1.74348484973601</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
       </c>
       <c r="C54" t="n">
-        <v>2.17984266149352</v>
+        <v>1.73654003772878</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
       </c>
       <c r="C55" t="n">
-        <v>2.15606449351508</v>
+        <v>1.71949290618094</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
       </c>
       <c r="C56" t="n">
-        <v>2.14720062612439</v>
+        <v>1.71268394338341</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57" t="n">
-        <v>2.01082418197236</v>
+        <v>1.71081679875472</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
       </c>
       <c r="C58" t="n">
-        <v>2.01082418197236</v>
+        <v>1.68255478717819</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
       <c r="C59" t="n">
-        <v>1.96368514563015</v>
+        <v>1.63381245897258</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
       </c>
       <c r="C60" t="n">
-        <v>1.96368514563015</v>
+        <v>1.62085840368761</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
       <c r="C61" t="n">
-        <v>1.91885283069941</v>
+        <v>1.62085840368761</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62" t="n">
-        <v>1.90053094559538</v>
+        <v>1.61056498944749</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="C63" t="n">
-        <v>1.90053094559538</v>
+        <v>1.58903635053737</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
       </c>
       <c r="C64" t="n">
-        <v>1.8872912265319</v>
+        <v>1.55517885765637</v>
       </c>
     </row>
     <row r="65">
@@ -1346,29 +1325,29 @@
         <v>69</v>
       </c>
       <c r="C65" t="n">
-        <v>1.83134363372819</v>
+        <v>1.55517885765637</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
       </c>
       <c r="C66" t="n">
-        <v>1.82158667674842</v>
+        <v>1.55517885765637</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
       </c>
       <c r="C67" t="n">
-        <v>1.82158667674842</v>
+        <v>1.53868666141701</v>
       </c>
     </row>
     <row r="68">
@@ -1379,18 +1358,18 @@
         <v>72</v>
       </c>
       <c r="C68" t="n">
-        <v>1.82158667674842</v>
+        <v>1.53868666141701</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
       </c>
       <c r="C69" t="n">
-        <v>1.81563940961651</v>
+        <v>1.52082757583772</v>
       </c>
     </row>
     <row r="70">
@@ -1401,7 +1380,7 @@
         <v>74</v>
       </c>
       <c r="C70" t="n">
-        <v>1.78848149766904</v>
+        <v>1.477985246229</v>
       </c>
     </row>
     <row r="71">
@@ -1412,18 +1391,18 @@
         <v>75</v>
       </c>
       <c r="C71" t="n">
-        <v>1.78762143746135</v>
+        <v>1.42438158884241</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
         <v>76</v>
       </c>
       <c r="C72" t="n">
-        <v>1.7471456797226</v>
+        <v>1.42228910972425</v>
       </c>
     </row>
     <row r="73">
@@ -1434,62 +1413,62 @@
         <v>77</v>
       </c>
       <c r="C73" t="n">
-        <v>1.72080358376163</v>
+        <v>1.42228910972425</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
         <v>78</v>
       </c>
       <c r="C74" t="n">
-        <v>1.67368334293253</v>
+        <v>1.42228910972425</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
         <v>79</v>
       </c>
       <c r="C75" t="n">
-        <v>1.67368334293253</v>
+        <v>1.42228910972425</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
         <v>80</v>
       </c>
       <c r="C76" t="n">
-        <v>1.67368334293253</v>
+        <v>1.41606546480896</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
         <v>81</v>
       </c>
       <c r="C77" t="n">
-        <v>1.66183450903367</v>
+        <v>1.39458712279856</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
         <v>82</v>
       </c>
       <c r="C78" t="n">
-        <v>1.63327268553652</v>
+        <v>1.36835069704581</v>
       </c>
     </row>
     <row r="79">
@@ -1500,18 +1479,18 @@
         <v>83</v>
       </c>
       <c r="C79" t="n">
-        <v>1.63327268553652</v>
+        <v>1.36526843618958</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
       </c>
       <c r="C80" t="n">
-        <v>1.61025361400049</v>
+        <v>1.33090889433699</v>
       </c>
     </row>
     <row r="81">
@@ -1522,7 +1501,7 @@
         <v>85</v>
       </c>
       <c r="C81" t="n">
-        <v>1.61025361400049</v>
+        <v>1.32898770733398</v>
       </c>
     </row>
     <row r="82">
@@ -1533,18 +1512,18 @@
         <v>86</v>
       </c>
       <c r="C82" t="n">
-        <v>1.56015059439098</v>
+        <v>1.31053423488613</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
       </c>
       <c r="C83" t="n">
-        <v>1.54715652180781</v>
+        <v>1.31053423488613</v>
       </c>
     </row>
     <row r="84">
@@ -1555,95 +1534,18 @@
         <v>88</v>
       </c>
       <c r="C84" t="n">
-        <v>1.47675655848349</v>
+        <v>1.30487960387102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
       </c>
       <c r="C85" t="n">
-        <v>1.40746391726489</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.40642764181593</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1.40642764181593</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1.35743001328246</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.35743001328246</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1.3025125455723</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1.3025125455723</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1.3025125455723</v>
+        <v>1.30487960387102</v>
       </c>
     </row>
   </sheetData>
